--- a/AlumniHub.xlsx
+++ b/AlumniHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laxma\OneDrive\Desktop\AlumniHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA01F51A-D69A-450A-B828-4A07B2E14333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C4DD8-1B76-4879-9DA1-A2625CAD2485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,13 +64,13 @@
     <t>Mangesh vispute</t>
   </si>
   <si>
-    <t>mangesh2004vispute@gmail.com</t>
-  </si>
-  <si>
     <t>Year_joined</t>
   </si>
   <si>
     <t>graduation_year</t>
+  </si>
+  <si>
+    <t>mangesh2003vispute@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,10 +446,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>9307168315</v>

--- a/AlumniHub.xlsx
+++ b/AlumniHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laxma\OneDrive\Desktop\AlumniHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C4DD8-1B76-4879-9DA1-A2625CAD2485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB331D07-E62B-4BB3-A415-952F65DC3B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>is_alumni</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>mangesh2003vispute@gmail.com</t>
+  </si>
+  <si>
+    <t>graduation_month</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,10 +423,12 @@
     <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -449,16 +454,19 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -471,7 +479,13 @@
       <c r="D2">
         <v>9307168315</v>
       </c>
-      <c r="J2" t="b">
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>2025</v>
+      </c>
+      <c r="K2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/AlumniHub.xlsx
+++ b/AlumniHub.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laxma\OneDrive\Desktop\AlumniHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB331D07-E62B-4BB3-A415-952F65DC3B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE844F3-DFE9-4608-8C71-9C12F2D2786C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +485,7 @@
       <c r="J2">
         <v>2025</v>
       </c>
-      <c r="K2" t="b">
+      <c r="L2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/AlumniHub.xlsx
+++ b/AlumniHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laxma\OneDrive\Desktop\AlumniHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE844F3-DFE9-4608-8C71-9C12F2D2786C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBE8CD2-E7FC-4341-BD2F-4728751AF85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +485,7 @@
       <c r="J2">
         <v>2025</v>
       </c>
-      <c r="L2" t="b">
+      <c r="K2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/AlumniHub.xlsx
+++ b/AlumniHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laxma\OneDrive\Desktop\AlumniHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBE8CD2-E7FC-4341-BD2F-4728751AF85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53B8167-1AEB-44D9-A225-09F4CF83B521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>is_alumni</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>graduation_month</t>
+  </si>
+  <si>
+    <t>Chetan Sonar</t>
+  </si>
+  <si>
+    <t>chetansonar2003@gmail.com</t>
+  </si>
+  <si>
+    <t>Rohan sapkale</t>
+  </si>
+  <si>
+    <t>99beastrohan@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,13 +497,67 @@
       <c r="J2">
         <v>2025</v>
       </c>
-      <c r="K2" t="b">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>7498530829</v>
+      </c>
+      <c r="H3">
+        <v>2021</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>2025</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>9511672132</v>
+      </c>
+      <c r="H4">
+        <v>2021</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>2025</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{44BC32FF-65E5-4404-AF1C-6B8ED765BD6C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{56D7C03E-E17D-4BBE-AA4D-F85F61E2B548}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{50E8D320-BA0B-41E6-8497-D2DCC58CF5E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlumniHub.xlsx
+++ b/AlumniHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laxma\OneDrive\Desktop\AlumniHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53B8167-1AEB-44D9-A225-09F4CF83B521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D30142F-EC02-46BE-AB03-5E0FFC97A9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>is_alumni</t>
   </si>
@@ -74,18 +74,6 @@
   </si>
   <si>
     <t>graduation_month</t>
-  </si>
-  <si>
-    <t>Chetan Sonar</t>
-  </si>
-  <si>
-    <t>chetansonar2003@gmail.com</t>
-  </si>
-  <si>
-    <t>Rohan sapkale</t>
-  </si>
-  <si>
-    <t>99beastrohan@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -423,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,67 +485,13 @@
       <c r="J2">
         <v>2025</v>
       </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>7498530829</v>
-      </c>
-      <c r="H3">
-        <v>2021</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>2025</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>9511672132</v>
-      </c>
-      <c r="H4">
-        <v>2021</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>2025</v>
-      </c>
-      <c r="L4" t="b">
+      <c r="K2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{44BC32FF-65E5-4404-AF1C-6B8ED765BD6C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{56D7C03E-E17D-4BBE-AA4D-F85F61E2B548}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{50E8D320-BA0B-41E6-8497-D2DCC58CF5E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlumniHub.xlsx
+++ b/AlumniHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laxma\OneDrive\Desktop\AlumniHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D30142F-EC02-46BE-AB03-5E0FFC97A9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CEFA41-DA2F-44B0-8D4E-BF669BDD3E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>is_alumni</t>
   </si>
@@ -61,26 +61,86 @@
     <t>full_name</t>
   </si>
   <si>
-    <t>Mangesh vispute</t>
-  </si>
-  <si>
     <t>Year_joined</t>
   </si>
   <si>
     <t>graduation_year</t>
   </si>
   <si>
-    <t>mangesh2003vispute@gmail.com</t>
-  </si>
-  <si>
     <t>graduation_month</t>
+  </si>
+  <si>
+    <t>Kamesh Surwade</t>
+  </si>
+  <si>
+    <t>kameshsurwade9850@gmail.com</t>
+  </si>
+  <si>
+    <t>(5) Kamesh Surwade | LinkedIn</t>
+  </si>
+  <si>
+    <t>Chetan Sonar</t>
+  </si>
+  <si>
+    <t>chetansonar2003@gmail.com</t>
+  </si>
+  <si>
+    <t>(5) Chetan Sonar | LinkedIn</t>
+  </si>
+  <si>
+    <t>Aditya Patil</t>
+  </si>
+  <si>
+    <t>adityapatil9226@gmail.com</t>
+  </si>
+  <si>
+    <t>(5) Aditya Patil | LinkedIn</t>
+  </si>
+  <si>
+    <t>nikinikam79@gmail.com</t>
+  </si>
+  <si>
+    <t>(5) Niki Nikam | LinkedIn</t>
+  </si>
+  <si>
+    <t>Niki nikam</t>
+  </si>
+  <si>
+    <t>Nilesh Tayade</t>
+  </si>
+  <si>
+    <t>nileshtayade2003@gmail.com</t>
+  </si>
+  <si>
+    <t>9673466829 </t>
+  </si>
+  <si>
+    <t>linkedin.com/in/nilesh-tayade-541205244</t>
+  </si>
+  <si>
+    <t>Jayesh Mahale</t>
+  </si>
+  <si>
+    <t>jayeshmahale1709@gmail.com</t>
+  </si>
+  <si>
+    <t>(5) Jayesh Mahale | LinkedIn</t>
+  </si>
+  <si>
+    <t>Rushikesh wani</t>
+  </si>
+  <si>
+    <t>rushirwani293@gmail.com</t>
+  </si>
+  <si>
+    <t>(5) Rushikesh Wani | LinkedIn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +161,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,12 +196,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,6 +497,7 @@
     <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" customWidth="1"/>
     <col min="8" max="8" width="15.109375" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" customWidth="1"/>
@@ -451,13 +526,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
@@ -468,16 +543,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>9307168315</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="3">
+        <v>8605870030</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -485,13 +563,175 @@
       <c r="J2">
         <v>2025</v>
       </c>
-      <c r="K2" t="b">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7498530829</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>2025</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9960033425</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>2025</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>2025</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>2025</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>2025</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9860587718</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>2025</v>
+      </c>
+      <c r="L8" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{44BC32FF-65E5-4404-AF1C-6B8ED765BD6C}"/>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:kameshsurwade9850@gmail.com" xr:uid="{C0439A31-5B2E-49B4-9A64-D0B547794E66}"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://www.linkedin.com/in/kameshsurwade/" xr:uid="{6717B5D6-ED81-4F74-B48E-6ED3BA1752DB}"/>
+    <hyperlink ref="C3" r:id="rId3" display="mailto:chetansonar2003@gmail.com" xr:uid="{F54830AF-50F0-4A14-B723-30D2D61B4D53}"/>
+    <hyperlink ref="E3" r:id="rId4" display="https://www.linkedin.com/in/hello-chetan/" xr:uid="{FCEB0E84-7936-4E07-91B7-E92248C072AD}"/>
+    <hyperlink ref="E4" r:id="rId5" display="https://www.linkedin.com/in/aditya-patil-b7b435258/" xr:uid="{6363573B-F6CD-498D-9320-5842A3BD4585}"/>
+    <hyperlink ref="C5" r:id="rId6" display="mailto:nikinikam79@gmail.com" xr:uid="{A8FACC08-566B-47AF-8464-A5C8F6FA4895}"/>
+    <hyperlink ref="E5" r:id="rId7" display="https://www.linkedin.com/in/niki-nikam-576965259/" xr:uid="{7F30EC13-EA52-4DB5-B9D8-884714C8053E}"/>
+    <hyperlink ref="C6" r:id="rId8" display="mailto:nileshtayade2003@gmail.com" xr:uid="{C661E96F-483F-4310-8C3F-ACD81998D8BF}"/>
+    <hyperlink ref="E6" r:id="rId9" display="https://www.linkedin.com/in/nilesh-tayade-541205244" xr:uid="{510886B7-B65B-400A-AB4F-235F8E971425}"/>
+    <hyperlink ref="C7" r:id="rId10" display="mailto:jayeshmahale1709@gmail.com" xr:uid="{50FB6BCE-1CFF-48E8-BFA8-A889E92A8F3C}"/>
+    <hyperlink ref="E7" r:id="rId11" display="https://www.linkedin.com/in/jayeshmahale1709/" xr:uid="{FB832A8A-04EC-4750-B999-50AC83282C68}"/>
+    <hyperlink ref="C8" r:id="rId12" display="mailto:rushirwani293@gmail.com" xr:uid="{117D17D9-EF54-492B-988A-73F99366EB83}"/>
+    <hyperlink ref="E8" r:id="rId13" display="https://www.linkedin.com/in/rushikesh-wani-2903rw/" xr:uid="{522CABA6-0189-4D2C-99BB-F7787F11BB72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlumniHub.xlsx
+++ b/AlumniHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laxma\OneDrive\Desktop\AlumniHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CEFA41-DA2F-44B0-8D4E-BF669BDD3E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6B3F79-7553-4D69-95ED-18C4D1FF3287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>is_alumni</t>
   </si>
@@ -73,74 +73,17 @@
     <t>Kamesh Surwade</t>
   </si>
   <si>
-    <t>kameshsurwade9850@gmail.com</t>
-  </si>
-  <si>
-    <t>(5) Kamesh Surwade | LinkedIn</t>
-  </si>
-  <si>
-    <t>Chetan Sonar</t>
-  </si>
-  <si>
-    <t>chetansonar2003@gmail.com</t>
-  </si>
-  <si>
-    <t>(5) Chetan Sonar | LinkedIn</t>
-  </si>
-  <si>
-    <t>Aditya Patil</t>
-  </si>
-  <si>
-    <t>adityapatil9226@gmail.com</t>
-  </si>
-  <si>
-    <t>(5) Aditya Patil | LinkedIn</t>
-  </si>
-  <si>
-    <t>nikinikam79@gmail.com</t>
-  </si>
-  <si>
-    <t>(5) Niki Nikam | LinkedIn</t>
-  </si>
-  <si>
-    <t>Niki nikam</t>
-  </si>
-  <si>
-    <t>Nilesh Tayade</t>
-  </si>
-  <si>
-    <t>nileshtayade2003@gmail.com</t>
-  </si>
-  <si>
-    <t>9673466829 </t>
-  </si>
-  <si>
-    <t>linkedin.com/in/nilesh-tayade-541205244</t>
-  </si>
-  <si>
-    <t>Jayesh Mahale</t>
-  </si>
-  <si>
-    <t>jayeshmahale1709@gmail.com</t>
-  </si>
-  <si>
-    <t>(5) Jayesh Mahale | LinkedIn</t>
-  </si>
-  <si>
-    <t>Rushikesh wani</t>
-  </si>
-  <si>
-    <t>rushirwani293@gmail.com</t>
-  </si>
-  <si>
-    <t>(5) Rushikesh Wani | LinkedIn</t>
+    <t>https://www.linkedin.com/in/kameshsurwade/</t>
+  </si>
+  <si>
+    <t>kamesh@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,12 +111,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,14 +133,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -485,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,7 +433,7 @@
     <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.109375" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" customWidth="1"/>
@@ -549,13 +485,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3">
         <v>8605870030</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -564,174 +500,13 @@
         <v>2025</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3">
-        <v>7498530829</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>2025</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>9960033425</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>2025</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>2025</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>2025</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>2025</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3">
-        <v>9860587718</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>2025</v>
-      </c>
-      <c r="L8" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="mailto:kameshsurwade9850@gmail.com" xr:uid="{C0439A31-5B2E-49B4-9A64-D0B547794E66}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://www.linkedin.com/in/kameshsurwade/" xr:uid="{6717B5D6-ED81-4F74-B48E-6ED3BA1752DB}"/>
-    <hyperlink ref="C3" r:id="rId3" display="mailto:chetansonar2003@gmail.com" xr:uid="{F54830AF-50F0-4A14-B723-30D2D61B4D53}"/>
-    <hyperlink ref="E3" r:id="rId4" display="https://www.linkedin.com/in/hello-chetan/" xr:uid="{FCEB0E84-7936-4E07-91B7-E92248C072AD}"/>
-    <hyperlink ref="E4" r:id="rId5" display="https://www.linkedin.com/in/aditya-patil-b7b435258/" xr:uid="{6363573B-F6CD-498D-9320-5842A3BD4585}"/>
-    <hyperlink ref="C5" r:id="rId6" display="mailto:nikinikam79@gmail.com" xr:uid="{A8FACC08-566B-47AF-8464-A5C8F6FA4895}"/>
-    <hyperlink ref="E5" r:id="rId7" display="https://www.linkedin.com/in/niki-nikam-576965259/" xr:uid="{7F30EC13-EA52-4DB5-B9D8-884714C8053E}"/>
-    <hyperlink ref="C6" r:id="rId8" display="mailto:nileshtayade2003@gmail.com" xr:uid="{C661E96F-483F-4310-8C3F-ACD81998D8BF}"/>
-    <hyperlink ref="E6" r:id="rId9" display="https://www.linkedin.com/in/nilesh-tayade-541205244" xr:uid="{510886B7-B65B-400A-AB4F-235F8E971425}"/>
-    <hyperlink ref="C7" r:id="rId10" display="mailto:jayeshmahale1709@gmail.com" xr:uid="{50FB6BCE-1CFF-48E8-BFA8-A889E92A8F3C}"/>
-    <hyperlink ref="E7" r:id="rId11" display="https://www.linkedin.com/in/jayeshmahale1709/" xr:uid="{FB832A8A-04EC-4750-B999-50AC83282C68}"/>
-    <hyperlink ref="C8" r:id="rId12" display="mailto:rushirwani293@gmail.com" xr:uid="{117D17D9-EF54-492B-988A-73F99366EB83}"/>
-    <hyperlink ref="E8" r:id="rId13" display="https://www.linkedin.com/in/rushikesh-wani-2903rw/" xr:uid="{522CABA6-0189-4D2C-99BB-F7787F11BB72}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C0439A31-5B2E-49B4-9A64-D0B547794E66}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{6717B5D6-ED81-4F74-B48E-6ED3BA1752DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
